--- a/_2ИСИП-421/2ИСИП-421.xlsx
+++ b/_2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573FA875-6038-45D7-B7E7-6BF2ADC04A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D2A0D3-B341-4B9F-AD23-F561F1D6FBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -870,7 +872,9 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1125,7 +1129,9 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1152,7 +1158,9 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1179,7 +1187,9 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1206,7 +1216,9 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1233,7 +1245,9 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1260,7 +1274,9 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1287,7 +1303,9 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
